--- a/Results_and_analysis/Dependence_tensor_on_geometry_analysis/results_analysis_complete_geometry.xlsx
+++ b/Results_and_analysis/Dependence_tensor_on_geometry_analysis/results_analysis_complete_geometry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plocha\Bachelor_thesis\Results_and_analysis\Dependence_tensor_on_geometry_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plocha\Bachelor_thesis\Python_scripts\Results_and_analysis\Dependence_tensor_on_geometry_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE43EC16-328E-4571-B726-12DA6B5BE232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E900EE1-ECF9-4786-816C-234A26BE60CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,6 +418,78 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,81 +508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -518,6 +515,180 @@
   </cellStyles>
   <dxfs count="54">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -565,9 +736,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -632,6 +800,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -679,16 +850,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -707,11 +868,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -727,11 +888,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -764,11 +925,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -784,6 +945,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -793,9 +964,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -821,11 +989,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -841,182 +1009,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3237,7 +3234,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>List1!$D$2:$O$2</c15:sqref>
@@ -3288,7 +3285,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>List1!$D$39:$O$39</c15:sqref>
@@ -3338,7 +3335,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-8EC9-410F-9AED-F378E6BFF049}"/>
                   </c:ext>
@@ -3378,7 +3375,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>List1!$D$2:$O$2</c15:sqref>
@@ -3429,7 +3426,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>List1!$D$52:$O$52</c15:sqref>
@@ -3479,7 +3476,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-8EC9-410F-9AED-F378E6BFF049}"/>
                   </c:ext>
@@ -3519,7 +3516,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>List1!$D$2:$O$2</c15:sqref>
@@ -3570,7 +3567,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>List1!$D$78:$O$78</c15:sqref>
@@ -3620,7 +3617,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-8EC9-410F-9AED-F378E6BFF049}"/>
                   </c:ext>
@@ -3666,7 +3663,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>List1!$D$2:$O$2</c15:sqref>
@@ -3717,7 +3714,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>List1!$D$91:$O$91</c15:sqref>
@@ -3767,7 +3764,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-8EC9-410F-9AED-F378E6BFF049}"/>
                   </c:ext>
@@ -3813,7 +3810,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>List1!$D$2:$O$2</c15:sqref>
@@ -3864,7 +3861,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>List1!$D$104:$O$104</c15:sqref>
@@ -3914,7 +3911,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-8EC9-410F-9AED-F378E6BFF049}"/>
                   </c:ext>
@@ -5242,7 +5239,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>List1!$D$2:$O$2</c15:sqref>
@@ -5293,7 +5290,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>List1!$D$65:$O$65</c15:sqref>
@@ -5343,7 +5340,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-5829-41EF-864D-D868D8A97E5F}"/>
                   </c:ext>
@@ -5389,7 +5386,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>List1!$D$2:$O$2</c15:sqref>
@@ -5440,7 +5437,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>List1!$D$117:$O$117</c15:sqref>
@@ -5490,7 +5487,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-5829-41EF-864D-D868D8A97E5F}"/>
                   </c:ext>
@@ -7822,8 +7819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC2281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL50" sqref="AL50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH29" sqref="AH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7838,47 +7835,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="47" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
-      <c r="Q1" s="34" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
+      <c r="Q1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="27"/>
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
       <c r="AC1" s="14"/>
     </row>
     <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="54"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="13">
         <v>-0.11</v>
       </c>
@@ -7915,32 +7912,32 @@
       <c r="O2" s="13">
         <v>0.11</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="31" t="s">
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="33"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="48"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
       <c r="AC2" s="15"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="2">
         <v>8160.2919632657204</v>
       </c>
@@ -7977,10 +7974,10 @@
       <c r="O3" s="3">
         <v>4866.5226904566998</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="52" t="s">
         <v>17</v>
       </c>
       <c r="S3" s="19">
@@ -7995,10 +7992,10 @@
         <f>D91</f>
         <v>367.89812762756407</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="V3" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="28" t="s">
+      <c r="W3" s="52" t="s">
         <v>17</v>
       </c>
       <c r="X3" s="19">
@@ -8015,11 +8012,11 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
-      <c r="B4" s="50">
+      <c r="A4" s="31"/>
+      <c r="B4" s="28">
         <v>2</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="4">
         <v>6527.2307938433496</v>
       </c>
@@ -8056,8 +8053,8 @@
       <c r="O4" s="5">
         <v>4615.9169755304601</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="29"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="53"/>
       <c r="S4" s="21">
         <f>D26</f>
         <v>437.28010034655119</v>
@@ -8070,8 +8067,8 @@
         <f>D104</f>
         <v>536.15499298021223</v>
       </c>
-      <c r="V4" s="26"/>
-      <c r="W4" s="29"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="53"/>
       <c r="X4" s="21">
         <f>O26</f>
         <v>210.26656611250445</v>
@@ -8086,11 +8083,11 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="44"/>
-      <c r="B5" s="50">
+      <c r="A5" s="31"/>
+      <c r="B5" s="28">
         <v>3</v>
       </c>
-      <c r="C5" s="50"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="4">
         <v>7665.1501676174003</v>
       </c>
@@ -8127,8 +8124,8 @@
       <c r="O5" s="5">
         <v>4411.4392405159697</v>
       </c>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="30"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="54"/>
       <c r="S5" s="23">
         <f>D39</f>
         <v>-103.34824336818011</v>
@@ -8141,8 +8138,8 @@
         <f>D117</f>
         <v>2470.059683579555</v>
       </c>
-      <c r="V5" s="27"/>
-      <c r="W5" s="30"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="54"/>
       <c r="X5" s="23">
         <f>O39</f>
         <v>38.33874771847568</v>
@@ -8157,11 +8154,11 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
-      <c r="B6" s="50">
+      <c r="A6" s="31"/>
+      <c r="B6" s="28">
         <v>4</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="4">
         <v>7765.5304426719003</v>
       </c>
@@ -8198,10 +8195,10 @@
       <c r="O6" s="5">
         <v>5573.7269697184101</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="R6" s="52" t="s">
         <v>17</v>
       </c>
       <c r="S6" s="19">
@@ -8216,10 +8213,10 @@
         <f>E91</f>
         <v>443.88939043556638</v>
       </c>
-      <c r="V6" s="25" t="s">
+      <c r="V6" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="28" t="s">
+      <c r="W6" s="52" t="s">
         <v>17</v>
       </c>
       <c r="X6" s="19">
@@ -8236,11 +8233,11 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A7" s="44"/>
-      <c r="B7" s="50">
+      <c r="A7" s="31"/>
+      <c r="B7" s="28">
         <v>5</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="4">
         <v>7914.7156973563096</v>
       </c>
@@ -8277,8 +8274,8 @@
       <c r="O7" s="5">
         <v>6344.3446187971304</v>
       </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="29"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="53"/>
       <c r="S7" s="21">
         <f>E26</f>
         <v>313.89045996645393</v>
@@ -8291,8 +8288,8 @@
         <f>E104</f>
         <v>463.31221311103735</v>
       </c>
-      <c r="V7" s="26"/>
-      <c r="W7" s="55"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="53"/>
       <c r="X7" s="21">
         <f>N26</f>
         <v>218.15279420288948</v>
@@ -8307,11 +8304,11 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="44"/>
-      <c r="B8" s="50">
+      <c r="A8" s="31"/>
+      <c r="B8" s="28">
         <v>6</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="4">
         <v>7078.1735365404102</v>
       </c>
@@ -8348,8 +8345,8 @@
       <c r="O8" s="5">
         <v>4768.4601767888798</v>
       </c>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="30"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="54"/>
       <c r="S8" s="23">
         <f>E39</f>
         <v>170.07759305476824</v>
@@ -8362,8 +8359,8 @@
         <f>E117</f>
         <v>2229.6087847657127</v>
       </c>
-      <c r="V8" s="27"/>
-      <c r="W8" s="30"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="54"/>
       <c r="X8" s="23">
         <f>N39</f>
         <v>-128.14180455896502</v>
@@ -8378,11 +8375,11 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
-      <c r="B9" s="50">
+      <c r="A9" s="31"/>
+      <c r="B9" s="28">
         <v>7</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="4">
         <v>7289.1689049607503</v>
       </c>
@@ -8419,10 +8416,10 @@
       <c r="O9" s="5">
         <v>4186.9928267301602</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="28" t="s">
+      <c r="R9" s="52" t="s">
         <v>17</v>
       </c>
       <c r="S9" s="19">
@@ -8437,7 +8434,7 @@
         <f>F91</f>
         <v>242.75597982170603</v>
       </c>
-      <c r="V9" s="25" t="s">
+      <c r="V9" s="49" t="s">
         <v>27</v>
       </c>
       <c r="W9" s="16" t="s">
@@ -8457,11 +8454,11 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
-      <c r="B10" s="50">
+      <c r="A10" s="31"/>
+      <c r="B10" s="28">
         <v>8</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="4">
         <v>7446.1855024344704</v>
       </c>
@@ -8498,8 +8495,8 @@
       <c r="O10" s="5">
         <v>5733.7108403582497</v>
       </c>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="29" t="s">
+      <c r="Q10" s="50"/>
+      <c r="R10" s="53" t="s">
         <v>17</v>
       </c>
       <c r="S10" s="21">
@@ -8514,7 +8511,7 @@
         <f>F104</f>
         <v>306.28329529154274</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="50"/>
       <c r="W10" s="17" t="s">
         <v>17</v>
       </c>
@@ -8532,11 +8529,11 @@
       </c>
     </row>
     <row r="11" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="44"/>
-      <c r="B11" s="50">
+      <c r="A11" s="31"/>
+      <c r="B11" s="28">
         <v>9</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="4">
         <v>6492.6079982186602</v>
       </c>
@@ -8573,8 +8570,8 @@
       <c r="O11" s="5">
         <v>5342.96678071923</v>
       </c>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="30"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="54"/>
       <c r="S11" s="23">
         <f>F39</f>
         <v>133.31358122129393</v>
@@ -8587,7 +8584,7 @@
         <f>F117</f>
         <v>2064.6673082663269</v>
       </c>
-      <c r="V11" s="27"/>
+      <c r="V11" s="51"/>
       <c r="W11" s="18"/>
       <c r="X11" s="23">
         <f>M39</f>
@@ -8603,11 +8600,11 @@
       </c>
     </row>
     <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="44"/>
-      <c r="B12" s="50">
+      <c r="A12" s="31"/>
+      <c r="B12" s="28">
         <v>10</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="4">
         <v>4715.2963809607199</v>
       </c>
@@ -8644,10 +8641,10 @@
       <c r="O12" s="5">
         <v>5167.2809871007003</v>
       </c>
-      <c r="Q12" s="25" t="s">
+      <c r="Q12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="28" t="s">
+      <c r="R12" s="52" t="s">
         <v>17</v>
       </c>
       <c r="S12" s="19">
@@ -8662,10 +8659,10 @@
         <f>G91</f>
         <v>195.12521032598173</v>
       </c>
-      <c r="V12" s="25" t="s">
+      <c r="V12" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="W12" s="28" t="s">
+      <c r="W12" s="52" t="s">
         <v>17</v>
       </c>
       <c r="X12" s="19">
@@ -8682,11 +8679,11 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="8">
         <f>AVERAGEA(D3:D12)</f>
         <v>7105.4351387869683</v>
@@ -8735,8 +8732,8 @@
         <f t="shared" si="0"/>
         <v>5101.1362106715887</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="29" t="s">
+      <c r="Q13" s="50"/>
+      <c r="R13" s="53" t="s">
         <v>17</v>
       </c>
       <c r="S13" s="21">
@@ -8751,8 +8748,8 @@
         <f>G104</f>
         <v>257.0443813008377</v>
       </c>
-      <c r="V13" s="26"/>
-      <c r="W13" s="55" t="s">
+      <c r="V13" s="50"/>
+      <c r="W13" s="53" t="s">
         <v>17</v>
       </c>
       <c r="X13" s="21">
@@ -8769,11 +8766,11 @@
       </c>
     </row>
     <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="8">
         <f t="shared" ref="D14:O14" si="1">_xlfn.STDEV.P(D3:D12)</f>
         <v>953.41058410555161</v>
@@ -8822,8 +8819,8 @@
         <f t="shared" si="1"/>
         <v>628.04550633981773</v>
       </c>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="30"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="54"/>
       <c r="S14" s="23">
         <f>G39</f>
         <v>139.21277119684692</v>
@@ -8836,8 +8833,8 @@
         <f>G117</f>
         <v>2077.2300833354843</v>
       </c>
-      <c r="V14" s="27"/>
-      <c r="W14" s="30"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="54"/>
       <c r="X14" s="23">
         <f>L39</f>
         <v>72.005563858971911</v>
@@ -8852,11 +8849,11 @@
       </c>
     </row>
     <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="12">
         <f>D14/D13</f>
         <v>0.13418046403676226</v>
@@ -8905,10 +8902,10 @@
         <f t="shared" si="2"/>
         <v>0.12311874853016963</v>
       </c>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="28" t="s">
+      <c r="R15" s="52" t="s">
         <v>17</v>
       </c>
       <c r="S15" s="19">
@@ -8923,10 +8920,10 @@
         <f>H91</f>
         <v>-96.290920696231424</v>
       </c>
-      <c r="V15" s="25" t="s">
+      <c r="V15" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="W15" s="28" t="s">
+      <c r="W15" s="52" t="s">
         <v>17</v>
       </c>
       <c r="X15" s="19">
@@ -8943,13 +8940,13 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="50">
+      <c r="B16" s="28">
         <v>1</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="4">
         <v>516.55946969383695</v>
       </c>
@@ -8986,8 +8983,8 @@
       <c r="O16" s="5">
         <v>-33.538295090132202</v>
       </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="29" t="s">
+      <c r="Q16" s="50"/>
+      <c r="R16" s="53" t="s">
         <v>17</v>
       </c>
       <c r="S16" s="21">
@@ -9002,8 +8999,8 @@
         <f>H104</f>
         <v>-128.43299012260943</v>
       </c>
-      <c r="V16" s="26"/>
-      <c r="W16" s="55" t="s">
+      <c r="V16" s="50"/>
+      <c r="W16" s="53" t="s">
         <v>17</v>
       </c>
       <c r="X16" s="21">
@@ -9020,11 +9017,11 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="44"/>
-      <c r="B17" s="50">
+      <c r="A17" s="31"/>
+      <c r="B17" s="28">
         <v>2</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="4">
         <v>558.21877643059599</v>
       </c>
@@ -9061,8 +9058,8 @@
       <c r="O17" s="5">
         <v>198.127876609015</v>
       </c>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="30"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="54"/>
       <c r="S17" s="23">
         <f>H39</f>
         <v>-114.54331709009178</v>
@@ -9075,8 +9072,8 @@
         <f>H117</f>
         <v>2097.7567316206555</v>
       </c>
-      <c r="V17" s="27"/>
-      <c r="W17" s="30"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="54"/>
       <c r="X17" s="23">
         <f>K39</f>
         <v>34.558426346202928</v>
@@ -9091,11 +9088,11 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="50">
+      <c r="A18" s="31"/>
+      <c r="B18" s="28">
         <v>3</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="4">
         <v>783.23139817522394</v>
       </c>
@@ -9132,10 +9129,10 @@
       <c r="O18" s="5">
         <v>131.29034905503499</v>
       </c>
-      <c r="Q18" s="25" t="s">
+      <c r="Q18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="R18" s="28" t="s">
+      <c r="R18" s="52" t="s">
         <v>17</v>
       </c>
       <c r="S18" s="19">
@@ -9150,10 +9147,10 @@
         <f>I91</f>
         <v>-104.62488994898948</v>
       </c>
-      <c r="V18" s="25" t="s">
+      <c r="V18" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="W18" s="28" t="s">
+      <c r="W18" s="52" t="s">
         <v>17</v>
       </c>
       <c r="X18" s="19">
@@ -9170,11 +9167,11 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="44"/>
-      <c r="B19" s="50">
+      <c r="A19" s="31"/>
+      <c r="B19" s="28">
         <v>4</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="4">
         <v>315.80364710051498</v>
       </c>
@@ -9211,8 +9208,8 @@
       <c r="O19" s="5">
         <v>305.38318734417697</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="29" t="s">
+      <c r="Q19" s="50"/>
+      <c r="R19" s="53" t="s">
         <v>17</v>
       </c>
       <c r="S19" s="21">
@@ -9227,8 +9224,8 @@
         <f>I104</f>
         <v>-27.970147787886425</v>
       </c>
-      <c r="V19" s="26"/>
-      <c r="W19" s="55" t="s">
+      <c r="V19" s="50"/>
+      <c r="W19" s="53" t="s">
         <v>17</v>
       </c>
       <c r="X19" s="21">
@@ -9245,11 +9242,11 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="44"/>
-      <c r="B20" s="50">
+      <c r="A20" s="31"/>
+      <c r="B20" s="28">
         <v>5</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="4">
         <v>289.47437688920201</v>
       </c>
@@ -9286,8 +9283,8 @@
       <c r="O20" s="5">
         <v>292.73502977550999</v>
       </c>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="30"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="54"/>
       <c r="S20" s="23">
         <f>I39</f>
         <v>-104.48739984313757</v>
@@ -9300,8 +9297,8 @@
         <f>I117</f>
         <v>1935.5875940046469</v>
       </c>
-      <c r="V20" s="27"/>
-      <c r="W20" s="30"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="54"/>
       <c r="X20" s="23">
         <f>J39</f>
         <v>123.79429538589372</v>
@@ -9316,11 +9313,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="44"/>
-      <c r="B21" s="50">
+      <c r="A21" s="31"/>
+      <c r="B21" s="28">
         <v>6</v>
       </c>
-      <c r="C21" s="50"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="4">
         <v>470.52567123932101</v>
       </c>
@@ -9359,11 +9356,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A22" s="44"/>
-      <c r="B22" s="50">
+      <c r="A22" s="31"/>
+      <c r="B22" s="28">
         <v>7</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="4">
         <v>153.50430957362099</v>
       </c>
@@ -9402,11 +9399,11 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A23" s="44"/>
-      <c r="B23" s="50">
+      <c r="A23" s="31"/>
+      <c r="B23" s="28">
         <v>8</v>
       </c>
-      <c r="C23" s="50"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="4">
         <v>757.94216506151702</v>
       </c>
@@ -9445,11 +9442,11 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
-      <c r="B24" s="50">
+      <c r="A24" s="31"/>
+      <c r="B24" s="28">
         <v>9</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="4">
         <v>338.34140959831899</v>
       </c>
@@ -9489,11 +9486,11 @@
       <c r="X24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="44"/>
-      <c r="B25" s="50">
+      <c r="A25" s="31"/>
+      <c r="B25" s="28">
         <v>10</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="4">
         <v>189.19977970336001</v>
       </c>
@@ -9532,11 +9529,11 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="8">
         <f>AVERAGEA(D16:D25)</f>
         <v>437.28010034655119</v>
@@ -9587,11 +9584,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="8">
         <f t="shared" ref="D27:O27" si="12">_xlfn.STDEV.P(D16:D25)</f>
         <v>208.08353611082509</v>
@@ -9642,11 +9639,11 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="12">
         <f>D27/D26</f>
         <v>0.4758586909075343</v>
@@ -9697,13 +9694,13 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="50">
+      <c r="B29" s="28">
         <v>1</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="4">
         <v>-19.474597855251002</v>
       </c>
@@ -9743,11 +9740,11 @@
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A30" s="44"/>
-      <c r="B30" s="50">
+      <c r="A30" s="31"/>
+      <c r="B30" s="28">
         <v>2</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="4">
         <v>124.064760527397</v>
       </c>
@@ -9786,11 +9783,11 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A31" s="44"/>
-      <c r="B31" s="50">
+      <c r="A31" s="31"/>
+      <c r="B31" s="28">
         <v>3</v>
       </c>
-      <c r="C31" s="50"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="4">
         <v>-177.90638632532301</v>
       </c>
@@ -9829,11 +9826,11 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A32" s="44"/>
-      <c r="B32" s="50">
+      <c r="A32" s="31"/>
+      <c r="B32" s="28">
         <v>4</v>
       </c>
-      <c r="C32" s="50"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="4">
         <v>134.69360516275199</v>
       </c>
@@ -9872,11 +9869,11 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="44"/>
-      <c r="B33" s="50">
+      <c r="A33" s="31"/>
+      <c r="B33" s="28">
         <v>5</v>
       </c>
-      <c r="C33" s="50"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="4">
         <v>92.961458118454999</v>
       </c>
@@ -9915,11 +9912,11 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="44"/>
-      <c r="B34" s="50">
+      <c r="A34" s="31"/>
+      <c r="B34" s="28">
         <v>6</v>
       </c>
-      <c r="C34" s="50"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="4">
         <v>-135.82446425305801</v>
       </c>
@@ -9958,11 +9955,11 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="50">
+      <c r="A35" s="31"/>
+      <c r="B35" s="28">
         <v>7</v>
       </c>
-      <c r="C35" s="50"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="4">
         <v>-127.174592254583</v>
       </c>
@@ -10001,11 +9998,11 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="44"/>
-      <c r="B36" s="50">
+      <c r="A36" s="31"/>
+      <c r="B36" s="28">
         <v>8</v>
       </c>
-      <c r="C36" s="50"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="4">
         <v>-481.46623266611698</v>
       </c>
@@ -10044,11 +10041,11 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="44"/>
-      <c r="B37" s="50">
+      <c r="A37" s="31"/>
+      <c r="B37" s="28">
         <v>9</v>
       </c>
-      <c r="C37" s="50"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="4">
         <v>-354.887632471583</v>
       </c>
@@ -10087,11 +10084,11 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="44"/>
-      <c r="B38" s="50">
+      <c r="A38" s="31"/>
+      <c r="B38" s="28">
         <v>10</v>
       </c>
-      <c r="C38" s="50"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="4">
         <v>-88.468351664489902</v>
       </c>
@@ -10130,11 +10127,11 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="8">
         <f>AVERAGEA(D29:D38)</f>
         <v>-103.34824336818011</v>
@@ -10185,11 +10182,11 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="8">
         <f t="shared" ref="D40:O40" si="32">_xlfn.STDEV.P(D29:D38)</f>
         <v>191.72920723927598</v>
@@ -10240,11 +10237,11 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="12">
         <f>D40/D39</f>
         <v>-1.8551762564191534</v>
@@ -10295,13 +10292,13 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="50">
+      <c r="B42" s="28">
         <v>1</v>
       </c>
-      <c r="C42" s="50"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="4">
         <v>267.43746373076402</v>
       </c>
@@ -10340,11 +10337,11 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="44"/>
-      <c r="B43" s="50">
+      <c r="A43" s="31"/>
+      <c r="B43" s="28">
         <v>2</v>
       </c>
-      <c r="C43" s="50"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="4">
         <v>506.313242528915</v>
       </c>
@@ -10383,11 +10380,11 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="44"/>
-      <c r="B44" s="50">
+      <c r="A44" s="31"/>
+      <c r="B44" s="28">
         <v>3</v>
       </c>
-      <c r="C44" s="50"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="4">
         <v>638.05196948525202</v>
       </c>
@@ -10426,11 +10423,11 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="44"/>
-      <c r="B45" s="50">
+      <c r="A45" s="31"/>
+      <c r="B45" s="28">
         <v>4</v>
       </c>
-      <c r="C45" s="50"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="4">
         <v>589.16086615087795</v>
       </c>
@@ -10469,11 +10466,11 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="44"/>
-      <c r="B46" s="50">
+      <c r="A46" s="31"/>
+      <c r="B46" s="28">
         <v>5</v>
       </c>
-      <c r="C46" s="50"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="4">
         <v>356.648720945013</v>
       </c>
@@ -10512,11 +10509,11 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="44"/>
-      <c r="B47" s="50">
+      <c r="A47" s="31"/>
+      <c r="B47" s="28">
         <v>6</v>
       </c>
-      <c r="C47" s="50"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="4">
         <v>583.34198706302197</v>
       </c>
@@ -10555,11 +10552,11 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="44"/>
-      <c r="B48" s="50">
+      <c r="A48" s="31"/>
+      <c r="B48" s="28">
         <v>7</v>
       </c>
-      <c r="C48" s="50"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="4">
         <v>412.26369519255701</v>
       </c>
@@ -10598,11 +10595,11 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" s="44"/>
-      <c r="B49" s="50">
+      <c r="A49" s="31"/>
+      <c r="B49" s="28">
         <v>8</v>
       </c>
-      <c r="C49" s="50"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="4">
         <v>640.12220946943603</v>
       </c>
@@ -10641,11 +10638,11 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="44"/>
-      <c r="B50" s="50">
+      <c r="A50" s="31"/>
+      <c r="B50" s="28">
         <v>9</v>
       </c>
-      <c r="C50" s="50"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="4">
         <v>292.905928671406</v>
       </c>
@@ -10684,11 +10681,11 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="44"/>
-      <c r="B51" s="50">
+      <c r="A51" s="31"/>
+      <c r="B51" s="28">
         <v>10</v>
       </c>
-      <c r="C51" s="50"/>
+      <c r="C51" s="28"/>
       <c r="D51" s="4">
         <v>217.59798684082</v>
       </c>
@@ -10727,11 +10724,11 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
       <c r="D52" s="8">
         <f>AVERAGEA(D42:D51)</f>
         <v>450.38440700780637</v>
@@ -10782,11 +10779,11 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
       <c r="D53" s="8">
         <f t="shared" ref="D53:O53" si="53">_xlfn.STDEV.P(D42:D51)</f>
         <v>152.96481495986396</v>
@@ -10837,11 +10834,11 @@
       </c>
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="39"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="12">
         <f>D53/D52</f>
         <v>0.33963168480034139</v>
@@ -10892,13 +10889,13 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="50">
+      <c r="B55" s="28">
         <v>1</v>
       </c>
-      <c r="C55" s="50"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="4">
         <v>7953.6532773489698</v>
       </c>
@@ -10937,11 +10934,11 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="44"/>
-      <c r="B56" s="50">
+      <c r="A56" s="31"/>
+      <c r="B56" s="28">
         <v>2</v>
       </c>
-      <c r="C56" s="50"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="4">
         <v>6164.5484291483999</v>
       </c>
@@ -10980,11 +10977,11 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="44"/>
-      <c r="B57" s="50">
+      <c r="A57" s="31"/>
+      <c r="B57" s="28">
         <v>3</v>
       </c>
-      <c r="C57" s="50"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="4">
         <v>10107.838807843</v>
       </c>
@@ -11023,11 +11020,11 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="44"/>
-      <c r="B58" s="50">
+      <c r="A58" s="31"/>
+      <c r="B58" s="28">
         <v>4</v>
       </c>
-      <c r="C58" s="50"/>
+      <c r="C58" s="28"/>
       <c r="D58" s="4">
         <v>8397.9316482681807</v>
       </c>
@@ -11066,11 +11063,11 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="44"/>
-      <c r="B59" s="50">
+      <c r="A59" s="31"/>
+      <c r="B59" s="28">
         <v>5</v>
       </c>
-      <c r="C59" s="50"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="4">
         <v>8797.8507111516992</v>
       </c>
@@ -11109,11 +11106,11 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="44"/>
-      <c r="B60" s="50">
+      <c r="A60" s="31"/>
+      <c r="B60" s="28">
         <v>6</v>
       </c>
-      <c r="C60" s="50"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="4">
         <v>7004.2009996774204</v>
       </c>
@@ -11152,11 +11149,11 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61" s="44"/>
-      <c r="B61" s="50">
+      <c r="A61" s="31"/>
+      <c r="B61" s="28">
         <v>7</v>
       </c>
-      <c r="C61" s="50"/>
+      <c r="C61" s="28"/>
       <c r="D61" s="4">
         <v>6851.3463994677604</v>
       </c>
@@ -11195,11 +11192,11 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62" s="44"/>
-      <c r="B62" s="50">
+      <c r="A62" s="31"/>
+      <c r="B62" s="28">
         <v>8</v>
       </c>
-      <c r="C62" s="50"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="4">
         <v>7621.3852935499599</v>
       </c>
@@ -11238,11 +11235,11 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A63" s="44"/>
-      <c r="B63" s="50">
+      <c r="A63" s="31"/>
+      <c r="B63" s="28">
         <v>9</v>
       </c>
-      <c r="C63" s="50"/>
+      <c r="C63" s="28"/>
       <c r="D63" s="4">
         <v>5886.5469808080597</v>
       </c>
@@ -11281,11 +11278,11 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="44"/>
-      <c r="B64" s="50">
+      <c r="A64" s="31"/>
+      <c r="B64" s="28">
         <v>10</v>
       </c>
-      <c r="C64" s="50"/>
+      <c r="C64" s="28"/>
       <c r="D64" s="4">
         <v>6786.0219372943602</v>
       </c>
@@ -11324,11 +11321,11 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="8">
         <f>AVERAGEA(D55:D64)</f>
         <v>7557.1324484557799</v>
@@ -11379,11 +11376,11 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
       <c r="D66" s="8">
         <f t="shared" ref="D66:O66" si="74">_xlfn.STDEV.P(D55:D64)</f>
         <v>1226.475023774376</v>
@@ -11434,11 +11431,11 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="39"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="36"/>
       <c r="D67" s="12">
         <f>D66/D65</f>
         <v>0.16229370493896705</v>
@@ -11489,13 +11486,13 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="50">
+      <c r="B68" s="28">
         <v>1</v>
       </c>
-      <c r="C68" s="50"/>
+      <c r="C68" s="28"/>
       <c r="D68" s="4">
         <v>-251.12716398301299</v>
       </c>
@@ -11534,11 +11531,11 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A69" s="44"/>
-      <c r="B69" s="50">
+      <c r="A69" s="31"/>
+      <c r="B69" s="28">
         <v>2</v>
       </c>
-      <c r="C69" s="50"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="4">
         <v>-124.47042566633399</v>
       </c>
@@ -11577,11 +11574,11 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A70" s="44"/>
-      <c r="B70" s="50">
+      <c r="A70" s="31"/>
+      <c r="B70" s="28">
         <v>3</v>
       </c>
-      <c r="C70" s="50"/>
+      <c r="C70" s="28"/>
       <c r="D70" s="4">
         <v>192.661136879552</v>
       </c>
@@ -11620,11 +11617,11 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A71" s="44"/>
-      <c r="B71" s="50">
+      <c r="A71" s="31"/>
+      <c r="B71" s="28">
         <v>4</v>
       </c>
-      <c r="C71" s="50"/>
+      <c r="C71" s="28"/>
       <c r="D71" s="4">
         <v>205.89817463042601</v>
       </c>
@@ -11663,11 +11660,11 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72" s="44"/>
-      <c r="B72" s="50">
+      <c r="A72" s="31"/>
+      <c r="B72" s="28">
         <v>5</v>
       </c>
-      <c r="C72" s="50"/>
+      <c r="C72" s="28"/>
       <c r="D72" s="4">
         <v>-213.93853275929499</v>
       </c>
@@ -11706,11 +11703,11 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" s="44"/>
-      <c r="B73" s="50">
+      <c r="A73" s="31"/>
+      <c r="B73" s="28">
         <v>6</v>
       </c>
-      <c r="C73" s="50"/>
+      <c r="C73" s="28"/>
       <c r="D73" s="4">
         <v>265.98117686227903</v>
       </c>
@@ -11749,11 +11746,11 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="44"/>
-      <c r="B74" s="50">
+      <c r="A74" s="31"/>
+      <c r="B74" s="28">
         <v>7</v>
       </c>
-      <c r="C74" s="50"/>
+      <c r="C74" s="28"/>
       <c r="D74" s="4">
         <v>431.33221265550901</v>
       </c>
@@ -11792,11 +11789,11 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A75" s="44"/>
-      <c r="B75" s="50">
+      <c r="A75" s="31"/>
+      <c r="B75" s="28">
         <v>8</v>
       </c>
-      <c r="C75" s="50"/>
+      <c r="C75" s="28"/>
       <c r="D75" s="4">
         <v>180.29171895022299</v>
       </c>
@@ -11835,11 +11832,11 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="44"/>
-      <c r="B76" s="50">
+      <c r="A76" s="31"/>
+      <c r="B76" s="28">
         <v>9</v>
       </c>
-      <c r="C76" s="50"/>
+      <c r="C76" s="28"/>
       <c r="D76" s="4">
         <v>112.250205320902</v>
       </c>
@@ -11878,11 +11875,11 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="44"/>
-      <c r="B77" s="50">
+      <c r="A77" s="31"/>
+      <c r="B77" s="28">
         <v>10</v>
       </c>
-      <c r="C77" s="50"/>
+      <c r="C77" s="28"/>
       <c r="D77" s="4">
         <v>430.52548285200402</v>
       </c>
@@ -11921,11 +11918,11 @@
       </c>
     </row>
     <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
       <c r="D78" s="8">
         <f>AVERAGEA(D68:D77)</f>
         <v>122.94039857422531</v>
@@ -11976,11 +11973,11 @@
       </c>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
       <c r="D79" s="8">
         <f t="shared" ref="D79:O79" si="95">_xlfn.STDEV.P(D68:D77)</f>
         <v>232.36765246905188</v>
@@ -12031,11 +12028,11 @@
       </c>
     </row>
     <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="39"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="36"/>
       <c r="D80" s="12">
         <f>D79/D78</f>
         <v>1.8900837736324714</v>
@@ -12086,13 +12083,13 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A81" s="44" t="s">
+      <c r="A81" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="50">
+      <c r="B81" s="28">
         <v>1</v>
       </c>
-      <c r="C81" s="50"/>
+      <c r="C81" s="28"/>
       <c r="D81" s="4">
         <v>298.29438096362202</v>
       </c>
@@ -12131,11 +12128,11 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A82" s="44"/>
-      <c r="B82" s="50">
+      <c r="A82" s="31"/>
+      <c r="B82" s="28">
         <v>2</v>
       </c>
-      <c r="C82" s="50"/>
+      <c r="C82" s="28"/>
       <c r="D82" s="4">
         <v>586.32415886029298</v>
       </c>
@@ -12174,11 +12171,11 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A83" s="44"/>
-      <c r="B83" s="50">
+      <c r="A83" s="31"/>
+      <c r="B83" s="28">
         <v>3</v>
       </c>
-      <c r="C83" s="50"/>
+      <c r="C83" s="28"/>
       <c r="D83" s="4">
         <v>481.67163493449402</v>
       </c>
@@ -12217,11 +12214,11 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A84" s="44"/>
-      <c r="B84" s="50">
+      <c r="A84" s="31"/>
+      <c r="B84" s="28">
         <v>4</v>
       </c>
-      <c r="C84" s="50"/>
+      <c r="C84" s="28"/>
       <c r="D84" s="4">
         <v>517.61174575860002</v>
       </c>
@@ -12260,11 +12257,11 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A85" s="44"/>
-      <c r="B85" s="50">
+      <c r="A85" s="31"/>
+      <c r="B85" s="28">
         <v>5</v>
       </c>
-      <c r="C85" s="50"/>
+      <c r="C85" s="28"/>
       <c r="D85" s="4">
         <v>376.096566972657</v>
       </c>
@@ -12303,11 +12300,11 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A86" s="44"/>
-      <c r="B86" s="50">
+      <c r="A86" s="31"/>
+      <c r="B86" s="28">
         <v>6</v>
       </c>
-      <c r="C86" s="50"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="4">
         <v>251.422898000348</v>
       </c>
@@ -12346,11 +12343,11 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A87" s="44"/>
-      <c r="B87" s="50">
+      <c r="A87" s="31"/>
+      <c r="B87" s="28">
         <v>7</v>
       </c>
-      <c r="C87" s="50"/>
+      <c r="C87" s="28"/>
       <c r="D87" s="4">
         <v>307.95048570896301</v>
       </c>
@@ -12389,11 +12386,11 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A88" s="44"/>
-      <c r="B88" s="50">
+      <c r="A88" s="31"/>
+      <c r="B88" s="28">
         <v>8</v>
       </c>
-      <c r="C88" s="50"/>
+      <c r="C88" s="28"/>
       <c r="D88" s="4">
         <v>482.061555328525</v>
       </c>
@@ -12432,11 +12429,11 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A89" s="44"/>
-      <c r="B89" s="50">
+      <c r="A89" s="31"/>
+      <c r="B89" s="28">
         <v>9</v>
       </c>
-      <c r="C89" s="50"/>
+      <c r="C89" s="28"/>
       <c r="D89" s="4">
         <v>41.015453925223497</v>
       </c>
@@ -12475,11 +12472,11 @@
       </c>
     </row>
     <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="44"/>
-      <c r="B90" s="50">
+      <c r="A90" s="31"/>
+      <c r="B90" s="28">
         <v>10</v>
       </c>
-      <c r="C90" s="50"/>
+      <c r="C90" s="28"/>
       <c r="D90" s="4">
         <v>336.53239582291502</v>
       </c>
@@ -12518,11 +12515,11 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="42" t="s">
+      <c r="A91" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
       <c r="D91" s="8">
         <f>AVERAGEA(D81:D90)</f>
         <v>367.89812762756407</v>
@@ -12573,11 +12570,11 @@
       </c>
     </row>
     <row r="92" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="42" t="s">
+      <c r="A92" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
       <c r="D92" s="8">
         <f t="shared" ref="D92:O92" si="116">_xlfn.STDEV.P(D81:D90)</f>
         <v>150.33628441178746</v>
@@ -12628,11 +12625,11 @@
       </c>
     </row>
     <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="37" t="s">
+      <c r="A93" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="39"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="36"/>
       <c r="D93" s="12">
         <f>D92/D91</f>
         <v>0.40863563340550091</v>
@@ -12683,13 +12680,13 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A94" s="44" t="s">
+      <c r="A94" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="50">
+      <c r="B94" s="28">
         <v>1</v>
       </c>
-      <c r="C94" s="50"/>
+      <c r="C94" s="28"/>
       <c r="D94" s="4">
         <v>152.73608423221199</v>
       </c>
@@ -12728,11 +12725,11 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A95" s="44"/>
-      <c r="B95" s="50">
+      <c r="A95" s="31"/>
+      <c r="B95" s="28">
         <v>2</v>
       </c>
-      <c r="C95" s="50"/>
+      <c r="C95" s="28"/>
       <c r="D95" s="4">
         <v>421.59853167213799</v>
       </c>
@@ -12771,11 +12768,11 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A96" s="44"/>
-      <c r="B96" s="50">
+      <c r="A96" s="31"/>
+      <c r="B96" s="28">
         <v>3</v>
       </c>
-      <c r="C96" s="50"/>
+      <c r="C96" s="28"/>
       <c r="D96" s="4">
         <v>646.65348352339004</v>
       </c>
@@ -12814,11 +12811,11 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A97" s="44"/>
-      <c r="B97" s="50">
+      <c r="A97" s="31"/>
+      <c r="B97" s="28">
         <v>4</v>
       </c>
-      <c r="C97" s="50"/>
+      <c r="C97" s="28"/>
       <c r="D97" s="4">
         <v>509.05893966029299</v>
       </c>
@@ -12857,11 +12854,11 @@
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A98" s="44"/>
-      <c r="B98" s="50">
+      <c r="A98" s="31"/>
+      <c r="B98" s="28">
         <v>5</v>
       </c>
-      <c r="C98" s="50"/>
+      <c r="C98" s="28"/>
       <c r="D98" s="4">
         <v>287.22397190931503</v>
       </c>
@@ -12900,11 +12897,11 @@
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A99" s="44"/>
-      <c r="B99" s="50">
+      <c r="A99" s="31"/>
+      <c r="B99" s="28">
         <v>6</v>
       </c>
-      <c r="C99" s="50"/>
+      <c r="C99" s="28"/>
       <c r="D99" s="4">
         <v>533.10311988598505</v>
       </c>
@@ -12943,11 +12940,11 @@
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A100" s="44"/>
-      <c r="B100" s="50">
+      <c r="A100" s="31"/>
+      <c r="B100" s="28">
         <v>7</v>
       </c>
-      <c r="C100" s="50"/>
+      <c r="C100" s="28"/>
       <c r="D100" s="4">
         <v>826.73225353197699</v>
       </c>
@@ -12986,11 +12983,11 @@
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A101" s="44"/>
-      <c r="B101" s="50">
+      <c r="A101" s="31"/>
+      <c r="B101" s="28">
         <v>8</v>
       </c>
-      <c r="C101" s="50"/>
+      <c r="C101" s="28"/>
       <c r="D101" s="4">
         <v>813.85237226700099</v>
       </c>
@@ -13029,11 +13026,11 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A102" s="44"/>
-      <c r="B102" s="50">
+      <c r="A102" s="31"/>
+      <c r="B102" s="28">
         <v>9</v>
       </c>
-      <c r="C102" s="50"/>
+      <c r="C102" s="28"/>
       <c r="D102" s="4">
         <v>420.50939902501301</v>
       </c>
@@ -13072,11 +13069,11 @@
       </c>
     </row>
     <row r="103" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="44"/>
-      <c r="B103" s="50">
+      <c r="A103" s="31"/>
+      <c r="B103" s="28">
         <v>10</v>
       </c>
-      <c r="C103" s="50"/>
+      <c r="C103" s="28"/>
       <c r="D103" s="4">
         <v>750.08177409479799</v>
       </c>
@@ -13115,11 +13112,11 @@
       </c>
     </row>
     <row r="104" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="42" t="s">
+      <c r="A104" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
       <c r="D104" s="8">
         <f>AVERAGEA(D94:D103)</f>
         <v>536.15499298021223</v>
@@ -13170,11 +13167,11 @@
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A105" s="42" t="s">
+      <c r="A105" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
       <c r="D105" s="8">
         <f t="shared" ref="D105:O105" si="136">_xlfn.STDEV.P(D94:D103)</f>
         <v>213.48135094273982</v>
@@ -13225,11 +13222,11 @@
       </c>
     </row>
     <row r="106" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="40" t="s">
+      <c r="A106" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B106" s="40"/>
-      <c r="C106" s="41"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="33"/>
       <c r="D106" s="12">
         <f>D105/D104</f>
         <v>0.39817096499671828</v>
@@ -13280,13 +13277,13 @@
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A107" s="44" t="s">
+      <c r="A107" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B107" s="50">
+      <c r="B107" s="28">
         <v>1</v>
       </c>
-      <c r="C107" s="50"/>
+      <c r="C107" s="28"/>
       <c r="D107" s="4">
         <v>2851.6618502501101</v>
       </c>
@@ -13325,11 +13322,11 @@
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A108" s="44"/>
-      <c r="B108" s="50">
+      <c r="A108" s="31"/>
+      <c r="B108" s="28">
         <v>2</v>
       </c>
-      <c r="C108" s="50"/>
+      <c r="C108" s="28"/>
       <c r="D108" s="4">
         <v>2333.0819307032298</v>
       </c>
@@ -13368,11 +13365,11 @@
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A109" s="44"/>
-      <c r="B109" s="50">
+      <c r="A109" s="31"/>
+      <c r="B109" s="28">
         <v>3</v>
       </c>
-      <c r="C109" s="50"/>
+      <c r="C109" s="28"/>
       <c r="D109" s="4">
         <v>3152.4055596784801</v>
       </c>
@@ -13411,11 +13408,11 @@
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A110" s="44"/>
-      <c r="B110" s="50">
+      <c r="A110" s="31"/>
+      <c r="B110" s="28">
         <v>4</v>
       </c>
-      <c r="C110" s="50"/>
+      <c r="C110" s="28"/>
       <c r="D110" s="4">
         <v>2734.5811688982499</v>
       </c>
@@ -13454,11 +13451,11 @@
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A111" s="44"/>
-      <c r="B111" s="50">
+      <c r="A111" s="31"/>
+      <c r="B111" s="28">
         <v>5</v>
       </c>
-      <c r="C111" s="50"/>
+      <c r="C111" s="28"/>
       <c r="D111" s="4">
         <v>2347.0839608053998</v>
       </c>
@@ -13497,11 +13494,11 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A112" s="44"/>
-      <c r="B112" s="50">
+      <c r="A112" s="31"/>
+      <c r="B112" s="28">
         <v>6</v>
       </c>
-      <c r="C112" s="50"/>
+      <c r="C112" s="28"/>
       <c r="D112" s="4">
         <v>2321.5860404929899</v>
       </c>
@@ -13540,11 +13537,11 @@
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A113" s="44"/>
-      <c r="B113" s="50">
+      <c r="A113" s="31"/>
+      <c r="B113" s="28">
         <v>7</v>
       </c>
-      <c r="C113" s="50"/>
+      <c r="C113" s="28"/>
       <c r="D113" s="4">
         <v>2437.1772332917899</v>
       </c>
@@ -13583,11 +13580,11 @@
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A114" s="44"/>
-      <c r="B114" s="50">
+      <c r="A114" s="31"/>
+      <c r="B114" s="28">
         <v>8</v>
       </c>
-      <c r="C114" s="50"/>
+      <c r="C114" s="28"/>
       <c r="D114" s="4">
         <v>2826.0432534391598</v>
       </c>
@@ -13626,11 +13623,11 @@
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A115" s="44"/>
-      <c r="B115" s="50">
+      <c r="A115" s="31"/>
+      <c r="B115" s="28">
         <v>9</v>
       </c>
-      <c r="C115" s="50"/>
+      <c r="C115" s="28"/>
       <c r="D115" s="4">
         <v>2015.5546096028299</v>
       </c>
@@ -13669,11 +13666,11 @@
       </c>
     </row>
     <row r="116" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="44"/>
-      <c r="B116" s="50">
+      <c r="A116" s="31"/>
+      <c r="B116" s="28">
         <v>10</v>
       </c>
-      <c r="C116" s="50"/>
+      <c r="C116" s="28"/>
       <c r="D116" s="4">
         <v>1681.42122863331</v>
       </c>
@@ -13712,11 +13709,11 @@
       </c>
     </row>
     <row r="117" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="42" t="s">
+      <c r="A117" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B117" s="43"/>
-      <c r="C117" s="43"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
       <c r="D117" s="8">
         <f>AVERAGEA(D107:D116)</f>
         <v>2470.059683579555</v>
@@ -13767,11 +13764,11 @@
       </c>
     </row>
     <row r="118" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="42" t="s">
+      <c r="A118" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="43"/>
-      <c r="C118" s="43"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
       <c r="D118" s="8">
         <f t="shared" ref="D118:O118" si="157">_xlfn.STDEV.P(D107:D116)</f>
         <v>411.51538400597559</v>
@@ -13822,11 +13819,11 @@
       </c>
     </row>
     <row r="119" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="37" t="s">
+      <c r="A119" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B119" s="38"/>
-      <c r="C119" s="39"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="36"/>
       <c r="D119" s="12">
         <f>D118/D117</f>
         <v>0.16660139297104626</v>
@@ -20029,6 +20026,137 @@
     </row>
   </sheetData>
   <mergeCells count="155">
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="V15:V17"/>
+    <mergeCell ref="W15:W17"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="B115:C115"/>
     <mergeCell ref="B116:C116"/>
@@ -20053,152 +20181,21 @@
     <mergeCell ref="B96:C96"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A81:A90"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="V15:V17"/>
-    <mergeCell ref="W15:W17"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="W18:W20"/>
   </mergeCells>
   <conditionalFormatting sqref="D15:O15">
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="greaterThan">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="52" priority="58" operator="lessThan">
+      <formula>0.5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="51" priority="57" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="58" operator="lessThan">
-      <formula>0.5</formula>
+    <cfRule type="cellIs" dxfId="50" priority="56" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="48" priority="60" operator="greaterThan">
@@ -20206,51 +20203,51 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:O28">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="54" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="52" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="51" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="50" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="51" operator="greaterThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="54" operator="greaterThan">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:O41">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="46" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="45" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="greaterThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="43" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="48" operator="greaterThan">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:O54">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="41" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="greaterThan">
-      <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="33" priority="39" operator="greaterThan">
       <formula>0.5</formula>
@@ -20258,11 +20255,11 @@
     <cfRule type="cellIs" dxfId="32" priority="40" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="37" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="42" operator="greaterThan">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:O67">
@@ -20286,11 +20283,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80:O80">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="greaterThan">
-      <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="21" priority="21" operator="greaterThan">
       <formula>0.5</formula>
@@ -20298,70 +20295,70 @@
     <cfRule type="cellIs" dxfId="20" priority="22" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="greaterThan">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:O93">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106:O106">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:O119">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>0.5</formula>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Results_and_analysis/Dependence_tensor_on_geometry_analysis/results_analysis_complete_geometry.xlsx
+++ b/Results_and_analysis/Dependence_tensor_on_geometry_analysis/results_analysis_complete_geometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plocha\Bachelor_thesis\Python_scripts\Results_and_analysis\Dependence_tensor_on_geometry_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E900EE1-ECF9-4786-816C-234A26BE60CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672AE8C5-34F3-4D43-841D-90B8D6611905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,33 +37,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
   <si>
     <t>Case number</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
   </si>
   <si>
     <t>σ</t>
@@ -127,6 +100,33 @@
   </si>
   <si>
     <t>C (0,01)</t>
+  </si>
+  <si>
+    <t>C1111</t>
+  </si>
+  <si>
+    <t>C2211</t>
+  </si>
+  <si>
+    <t>C1211</t>
+  </si>
+  <si>
+    <t>C1122</t>
+  </si>
+  <si>
+    <t>C2222</t>
+  </si>
+  <si>
+    <t>C1222</t>
+  </si>
+  <si>
+    <t>C1112</t>
+  </si>
+  <si>
+    <t>C2212</t>
+  </si>
+  <si>
+    <t>C1212</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,14 +418,41 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,21 +465,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,32 +493,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -515,180 +512,6 @@
   </cellStyles>
   <dxfs count="54">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -736,6 +559,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -800,9 +626,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -850,6 +673,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -868,11 +701,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -888,11 +721,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -925,11 +758,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -945,16 +778,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -964,6 +787,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -989,11 +815,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1009,11 +835,182 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1135,7 +1132,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>C1</c:v>
+            <c:strRef>
+              <c:f>List1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1111</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1262,7 +1267,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>C2</c:v>
+            <c:strRef>
+              <c:f>List1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1389,7 +1402,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>C3</c:v>
+            <c:strRef>
+              <c:f>List1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1516,7 +1537,15 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>C4</c:v>
+            <c:strRef>
+              <c:f>List1!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1122</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1643,7 +1672,15 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>C5</c:v>
+            <c:strRef>
+              <c:f>List1!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1770,7 +1807,15 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>C6</c:v>
+            <c:strRef>
+              <c:f>List1!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1897,7 +1942,15 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>C7</c:v>
+            <c:strRef>
+              <c:f>List1!$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1112</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2030,7 +2083,15 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>C8</c:v>
+            <c:strRef>
+              <c:f>List1!$A$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2163,7 +2224,15 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>C9</c:v>
+            <c:strRef>
+              <c:f>List1!$A$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2352,14 +2421,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.46704062167831262"/>
-              <c:y val="0.94936753149484698"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2392,7 +2453,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2451,10 +2512,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Hodnota efektivních konstant [Pa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2665,7 +2788,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>C1</c:v>
+            <c:strRef>
+              <c:f>List1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1111</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2792,7 +2923,15 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>C5</c:v>
+            <c:strRef>
+              <c:f>List1!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2919,7 +3058,15 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>C9</c:v>
+            <c:strRef>
+              <c:f>List1!$A$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3970,14 +4117,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.46704062167831262"/>
-              <c:y val="0.94936753149484698"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4069,6 +4208,76 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Hodnota efektivních konstant [Pa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.923975599474919E-2"/>
+              <c:y val="0.34214299228489142"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4283,7 +4492,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>C2</c:v>
+            <c:strRef>
+              <c:f>List1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4410,7 +4627,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>C3</c:v>
+            <c:strRef>
+              <c:f>List1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4537,7 +4762,15 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>C4</c:v>
+            <c:strRef>
+              <c:f>List1!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1122</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4664,7 +4897,15 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>C6</c:v>
+            <c:strRef>
+              <c:f>List1!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4791,7 +5032,15 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>C7</c:v>
+            <c:strRef>
+              <c:f>List1!$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1112</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4924,7 +5173,15 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>C8</c:v>
+            <c:strRef>
+              <c:f>List1!$A$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5550,8 +5807,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.46704062167831262"/>
-              <c:y val="0.94936753149484698"/>
+              <c:x val="0.48341578400209961"/>
+              <c:y val="0.95637459573905514"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5645,6 +5902,76 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Hodnota efektivních konstant [Pa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9840450875692518E-2"/>
+              <c:y val="0.38180941673951091"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7447,8 +7774,8 @@
       <xdr:rowOff>93230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>20159</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>124732</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>57728</xdr:rowOff>
     </xdr:to>
@@ -7483,8 +7810,8 @@
       <xdr:rowOff>50398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>574525</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>20159</xdr:rowOff>
     </xdr:to>
@@ -7515,16 +7842,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>20159</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>825248</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>120953</xdr:rowOff>
+      <xdr:rowOff>86935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>326138</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>156006</xdr:rowOff>
+      <xdr:rowOff>121988</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7817,10 +8144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC2281"/>
+  <dimension ref="A1:AK2281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH29" sqref="AH29"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL120" sqref="AL120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7834,48 +8161,48 @@
     <col min="22" max="22" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
-      <c r="Q1" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="27"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
+      <c r="Q1" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="52"/>
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
       <c r="AC1" s="14"/>
     </row>
-    <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="45"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="13">
         <v>-0.11</v>
       </c>
@@ -7912,32 +8239,32 @@
       <c r="O2" s="13">
         <v>0.11</v>
       </c>
-      <c r="Q2" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="48"/>
+      <c r="Q2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="33"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
       <c r="AC2" s="15"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="28">
-        <v>1</v>
-      </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="2">
         <v>8160.2919632657204</v>
       </c>
@@ -7974,11 +8301,11 @@
       <c r="O3" s="3">
         <v>4866.5226904566998</v>
       </c>
-      <c r="Q3" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="52" t="s">
-        <v>17</v>
+      <c r="Q3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="S3" s="19">
         <f>D13</f>
@@ -7992,11 +8319,11 @@
         <f>D91</f>
         <v>367.89812762756407</v>
       </c>
-      <c r="V3" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="52" t="s">
-        <v>17</v>
+      <c r="V3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="X3" s="19">
         <f>O13</f>
@@ -8011,12 +8338,12 @@
         <v>-366.12406632223644</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" s="28">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A4" s="40"/>
+      <c r="B4" s="37">
         <v>2</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="4">
         <v>6527.2307938433496</v>
       </c>
@@ -8053,8 +8380,8 @@
       <c r="O4" s="5">
         <v>4615.9169755304601</v>
       </c>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="53"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="29"/>
       <c r="S4" s="21">
         <f>D26</f>
         <v>437.28010034655119</v>
@@ -8067,8 +8394,8 @@
         <f>D104</f>
         <v>536.15499298021223</v>
       </c>
-      <c r="V4" s="50"/>
-      <c r="W4" s="53"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="29"/>
       <c r="X4" s="21">
         <f>O26</f>
         <v>210.26656611250445</v>
@@ -8082,12 +8409,12 @@
         <v>-429.8246460342275</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="28">
+    <row r="5" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
+      <c r="B5" s="37">
         <v>3</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="4">
         <v>7665.1501676174003</v>
       </c>
@@ -8124,8 +8451,8 @@
       <c r="O5" s="5">
         <v>4411.4392405159697</v>
       </c>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="54"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="30"/>
       <c r="S5" s="23">
         <f>D39</f>
         <v>-103.34824336818011</v>
@@ -8138,8 +8465,8 @@
         <f>D117</f>
         <v>2470.059683579555</v>
       </c>
-      <c r="V5" s="51"/>
-      <c r="W5" s="54"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="30"/>
       <c r="X5" s="23">
         <f>O39</f>
         <v>38.33874771847568</v>
@@ -8153,12 +8480,12 @@
         <v>2433.3154682786508</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-      <c r="B6" s="28">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A6" s="40"/>
+      <c r="B6" s="37">
         <v>4</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="4">
         <v>7765.5304426719003</v>
       </c>
@@ -8195,11 +8522,11 @@
       <c r="O6" s="5">
         <v>5573.7269697184101</v>
       </c>
-      <c r="Q6" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="52" t="s">
-        <v>17</v>
+      <c r="Q6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="S6" s="19">
         <f>E13</f>
@@ -8213,11 +8540,11 @@
         <f>E91</f>
         <v>443.88939043556638</v>
       </c>
-      <c r="V6" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="W6" s="52" t="s">
+      <c r="V6" s="25" t="s">
         <v>17</v>
+      </c>
+      <c r="W6" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="X6" s="19">
         <f>N13</f>
@@ -8232,12 +8559,12 @@
         <v>-360.40291962288865</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="28">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A7" s="40"/>
+      <c r="B7" s="37">
         <v>5</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="4">
         <v>7914.7156973563096</v>
       </c>
@@ -8274,8 +8601,8 @@
       <c r="O7" s="5">
         <v>6344.3446187971304</v>
       </c>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="53"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="29"/>
       <c r="S7" s="21">
         <f>E26</f>
         <v>313.89045996645393</v>
@@ -8288,8 +8615,8 @@
         <f>E104</f>
         <v>463.31221311103735</v>
       </c>
-      <c r="V7" s="50"/>
-      <c r="W7" s="53"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="29"/>
       <c r="X7" s="21">
         <f>N26</f>
         <v>218.15279420288948</v>
@@ -8303,12 +8630,12 @@
         <v>-278.32248580538487</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="28">
+    <row r="8" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="40"/>
+      <c r="B8" s="37">
         <v>6</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="4">
         <v>7078.1735365404102</v>
       </c>
@@ -8345,8 +8672,8 @@
       <c r="O8" s="5">
         <v>4768.4601767888798</v>
       </c>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="54"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="30"/>
       <c r="S8" s="23">
         <f>E39</f>
         <v>170.07759305476824</v>
@@ -8359,8 +8686,8 @@
         <f>E117</f>
         <v>2229.6087847657127</v>
       </c>
-      <c r="V8" s="51"/>
-      <c r="W8" s="54"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="30"/>
       <c r="X8" s="23">
         <f>N39</f>
         <v>-128.14180455896502</v>
@@ -8374,12 +8701,12 @@
         <v>2075.6033301900288</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A9" s="40"/>
+      <c r="B9" s="37">
         <v>7</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="4">
         <v>7289.1689049607503</v>
       </c>
@@ -8416,11 +8743,11 @@
       <c r="O9" s="5">
         <v>4186.9928267301602</v>
       </c>
-      <c r="Q9" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="52" t="s">
-        <v>17</v>
+      <c r="Q9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="S9" s="19">
         <f>F13</f>
@@ -8434,11 +8761,11 @@
         <f>F91</f>
         <v>242.75597982170603</v>
       </c>
-      <c r="V9" s="49" t="s">
-        <v>27</v>
+      <c r="V9" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="X9" s="19">
         <f>M13</f>
@@ -8453,12 +8780,12 @@
         <v>-221.70804686197167</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="28">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A10" s="40"/>
+      <c r="B10" s="37">
         <v>8</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="4">
         <v>7446.1855024344704</v>
       </c>
@@ -8495,9 +8822,9 @@
       <c r="O10" s="5">
         <v>5733.7108403582497</v>
       </c>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="53" t="s">
-        <v>17</v>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="S10" s="21">
         <f>F26</f>
@@ -8511,9 +8838,9 @@
         <f>F104</f>
         <v>306.28329529154274</v>
       </c>
-      <c r="V10" s="50"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="17" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="X10" s="21">
         <f>M26</f>
@@ -8528,12 +8855,12 @@
         <v>-242.62558860963813</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
-      <c r="B11" s="28">
+    <row r="11" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="40"/>
+      <c r="B11" s="37">
         <v>9</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="4">
         <v>6492.6079982186602</v>
       </c>
@@ -8570,8 +8897,8 @@
       <c r="O11" s="5">
         <v>5342.96678071923</v>
       </c>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="54"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="30"/>
       <c r="S11" s="23">
         <f>F39</f>
         <v>133.31358122129393</v>
@@ -8584,7 +8911,7 @@
         <f>F117</f>
         <v>2064.6673082663269</v>
       </c>
-      <c r="V11" s="51"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="18"/>
       <c r="X11" s="23">
         <f>M39</f>
@@ -8598,13 +8925,22 @@
         <f>M117</f>
         <v>2169.9973681795536</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
-      <c r="B12" s="28">
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+    </row>
+    <row r="12" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="40"/>
+      <c r="B12" s="37">
         <v>10</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="4">
         <v>4715.2963809607199</v>
       </c>
@@ -8641,11 +8977,11 @@
       <c r="O12" s="5">
         <v>5167.2809871007003</v>
       </c>
-      <c r="Q12" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="52" t="s">
-        <v>17</v>
+      <c r="Q12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="S12" s="19">
         <f>G13</f>
@@ -8659,11 +8995,11 @@
         <f>G91</f>
         <v>195.12521032598173</v>
       </c>
-      <c r="V12" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="W12" s="52" t="s">
-        <v>17</v>
+      <c r="V12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="X12" s="19">
         <f>L13</f>
@@ -8678,12 +9014,12 @@
         <v>13.987113089689592</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+    <row r="13" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="8">
         <f>AVERAGEA(D3:D12)</f>
         <v>7105.4351387869683</v>
@@ -8732,9 +9068,9 @@
         <f t="shared" si="0"/>
         <v>5101.1362106715887</v>
       </c>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="53" t="s">
-        <v>17</v>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="S13" s="21">
         <f>G26</f>
@@ -8748,9 +9084,9 @@
         <f>G104</f>
         <v>257.0443813008377</v>
       </c>
-      <c r="V13" s="50"/>
-      <c r="W13" s="53" t="s">
-        <v>17</v>
+      <c r="V13" s="26"/>
+      <c r="W13" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="X13" s="21">
         <f>L26</f>
@@ -8765,12 +9101,12 @@
         <v>2.7512649642557561</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+    <row r="14" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="8">
         <f t="shared" ref="D14:O14" si="1">_xlfn.STDEV.P(D3:D12)</f>
         <v>953.41058410555161</v>
@@ -8819,8 +9155,8 @@
         <f t="shared" si="1"/>
         <v>628.04550633981773</v>
       </c>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="54"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="30"/>
       <c r="S14" s="23">
         <f>G39</f>
         <v>139.21277119684692</v>
@@ -8833,8 +9169,8 @@
         <f>G117</f>
         <v>2077.2300833354843</v>
       </c>
-      <c r="V14" s="51"/>
-      <c r="W14" s="54"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="30"/>
       <c r="X14" s="23">
         <f>L39</f>
         <v>72.005563858971911</v>
@@ -8848,12 +9184,12 @@
         <v>2176.33500746442</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
+    <row r="15" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="12">
         <f>D14/D13</f>
         <v>0.13418046403676226</v>
@@ -8902,11 +9238,11 @@
         <f t="shared" si="2"/>
         <v>0.12311874853016963</v>
       </c>
-      <c r="Q15" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="52" t="s">
-        <v>17</v>
+      <c r="Q15" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="19">
         <f>H13</f>
@@ -8920,11 +9256,11 @@
         <f>H91</f>
         <v>-96.290920696231424</v>
       </c>
-      <c r="V15" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="W15" s="52" t="s">
-        <v>17</v>
+      <c r="V15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="19">
         <f>K13</f>
@@ -8939,14 +9275,14 @@
         <v>22.482954783931426</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A16" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="28">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A16" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="37">
         <v>1</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="4">
         <v>516.55946969383695</v>
       </c>
@@ -8983,9 +9319,9 @@
       <c r="O16" s="5">
         <v>-33.538295090132202</v>
       </c>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="53" t="s">
-        <v>17</v>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="S16" s="21">
         <f>H26</f>
@@ -8999,9 +9335,9 @@
         <f>H104</f>
         <v>-128.43299012260943</v>
       </c>
-      <c r="V16" s="50"/>
-      <c r="W16" s="53" t="s">
-        <v>17</v>
+      <c r="V16" s="26"/>
+      <c r="W16" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="X16" s="21">
         <f>K26</f>
@@ -9017,11 +9353,11 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="31"/>
-      <c r="B17" s="28">
+      <c r="A17" s="40"/>
+      <c r="B17" s="37">
         <v>2</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="4">
         <v>558.21877643059599</v>
       </c>
@@ -9058,8 +9394,8 @@
       <c r="O17" s="5">
         <v>198.127876609015</v>
       </c>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="54"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="30"/>
       <c r="S17" s="23">
         <f>H39</f>
         <v>-114.54331709009178</v>
@@ -9072,8 +9408,8 @@
         <f>H117</f>
         <v>2097.7567316206555</v>
       </c>
-      <c r="V17" s="51"/>
-      <c r="W17" s="54"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="30"/>
       <c r="X17" s="23">
         <f>K39</f>
         <v>34.558426346202928</v>
@@ -9088,11 +9424,11 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="28">
+      <c r="A18" s="40"/>
+      <c r="B18" s="37">
         <v>3</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="4">
         <v>783.23139817522394</v>
       </c>
@@ -9129,11 +9465,11 @@
       <c r="O18" s="5">
         <v>131.29034905503499</v>
       </c>
-      <c r="Q18" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="R18" s="52" t="s">
-        <v>17</v>
+      <c r="Q18" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="S18" s="19">
         <f>I13</f>
@@ -9147,11 +9483,11 @@
         <f>I91</f>
         <v>-104.62488994898948</v>
       </c>
-      <c r="V18" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="W18" s="52" t="s">
-        <v>17</v>
+      <c r="V18" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="X18" s="19">
         <f>J13</f>
@@ -9167,11 +9503,11 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
-      <c r="B19" s="28">
+      <c r="A19" s="40"/>
+      <c r="B19" s="37">
         <v>4</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="4">
         <v>315.80364710051498</v>
       </c>
@@ -9208,9 +9544,9 @@
       <c r="O19" s="5">
         <v>305.38318734417697</v>
       </c>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="53" t="s">
-        <v>17</v>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="S19" s="21">
         <f>I26</f>
@@ -9224,9 +9560,9 @@
         <f>I104</f>
         <v>-27.970147787886425</v>
       </c>
-      <c r="V19" s="50"/>
-      <c r="W19" s="53" t="s">
-        <v>17</v>
+      <c r="V19" s="26"/>
+      <c r="W19" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="X19" s="21">
         <f>J26</f>
@@ -9242,11 +9578,11 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="31"/>
-      <c r="B20" s="28">
+      <c r="A20" s="40"/>
+      <c r="B20" s="37">
         <v>5</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="4">
         <v>289.47437688920201</v>
       </c>
@@ -9283,8 +9619,8 @@
       <c r="O20" s="5">
         <v>292.73502977550999</v>
       </c>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="54"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="30"/>
       <c r="S20" s="23">
         <f>I39</f>
         <v>-104.48739984313757</v>
@@ -9297,8 +9633,8 @@
         <f>I117</f>
         <v>1935.5875940046469</v>
       </c>
-      <c r="V20" s="51"/>
-      <c r="W20" s="54"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="30"/>
       <c r="X20" s="23">
         <f>J39</f>
         <v>123.79429538589372</v>
@@ -9313,11 +9649,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="28">
+      <c r="A21" s="40"/>
+      <c r="B21" s="37">
         <v>6</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="4">
         <v>470.52567123932101</v>
       </c>
@@ -9356,11 +9692,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
-      <c r="B22" s="28">
+      <c r="A22" s="40"/>
+      <c r="B22" s="37">
         <v>7</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="4">
         <v>153.50430957362099</v>
       </c>
@@ -9399,11 +9735,11 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="28">
+      <c r="A23" s="40"/>
+      <c r="B23" s="37">
         <v>8</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="4">
         <v>757.94216506151702</v>
       </c>
@@ -9442,11 +9778,11 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
-      <c r="B24" s="28">
+      <c r="A24" s="40"/>
+      <c r="B24" s="37">
         <v>9</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="4">
         <v>338.34140959831899</v>
       </c>
@@ -9486,11 +9822,11 @@
       <c r="X24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="31"/>
-      <c r="B25" s="28">
+      <c r="A25" s="40"/>
+      <c r="B25" s="37">
         <v>10</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="4">
         <v>189.19977970336001</v>
       </c>
@@ -9529,11 +9865,11 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+      <c r="A26" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="8">
         <f>AVERAGEA(D16:D25)</f>
         <v>437.28010034655119</v>
@@ -9584,11 +9920,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="A27" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="8">
         <f t="shared" ref="D27:O27" si="12">_xlfn.STDEV.P(D16:D25)</f>
         <v>208.08353611082509</v>
@@ -9640,7 +9976,7 @@
     </row>
     <row r="28" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="34" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
@@ -9694,13 +10030,13 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="28">
+      <c r="A29" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="37">
         <v>1</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="4">
         <v>-19.474597855251002</v>
       </c>
@@ -9740,11 +10076,11 @@
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
-      <c r="B30" s="28">
+      <c r="A30" s="40"/>
+      <c r="B30" s="37">
         <v>2</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="4">
         <v>124.064760527397</v>
       </c>
@@ -9783,11 +10119,11 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A31" s="31"/>
-      <c r="B31" s="28">
+      <c r="A31" s="40"/>
+      <c r="B31" s="37">
         <v>3</v>
       </c>
-      <c r="C31" s="28"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="4">
         <v>-177.90638632532301</v>
       </c>
@@ -9826,11 +10162,11 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A32" s="31"/>
-      <c r="B32" s="28">
+      <c r="A32" s="40"/>
+      <c r="B32" s="37">
         <v>4</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="4">
         <v>134.69360516275199</v>
       </c>
@@ -9869,11 +10205,11 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="31"/>
-      <c r="B33" s="28">
+      <c r="A33" s="40"/>
+      <c r="B33" s="37">
         <v>5</v>
       </c>
-      <c r="C33" s="28"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="4">
         <v>92.961458118454999</v>
       </c>
@@ -9912,11 +10248,11 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="31"/>
-      <c r="B34" s="28">
+      <c r="A34" s="40"/>
+      <c r="B34" s="37">
         <v>6</v>
       </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="4">
         <v>-135.82446425305801</v>
       </c>
@@ -9955,11 +10291,11 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="31"/>
-      <c r="B35" s="28">
+      <c r="A35" s="40"/>
+      <c r="B35" s="37">
         <v>7</v>
       </c>
-      <c r="C35" s="28"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="4">
         <v>-127.174592254583</v>
       </c>
@@ -9998,11 +10334,11 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="31"/>
-      <c r="B36" s="28">
+      <c r="A36" s="40"/>
+      <c r="B36" s="37">
         <v>8</v>
       </c>
-      <c r="C36" s="28"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="4">
         <v>-481.46623266611698</v>
       </c>
@@ -10041,11 +10377,11 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="31"/>
-      <c r="B37" s="28">
+      <c r="A37" s="40"/>
+      <c r="B37" s="37">
         <v>9</v>
       </c>
-      <c r="C37" s="28"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="4">
         <v>-354.887632471583</v>
       </c>
@@ -10084,11 +10420,11 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="31"/>
-      <c r="B38" s="28">
+      <c r="A38" s="40"/>
+      <c r="B38" s="37">
         <v>10</v>
       </c>
-      <c r="C38" s="28"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="4">
         <v>-88.468351664489902</v>
       </c>
@@ -10127,11 +10463,11 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="A39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="8">
         <f>AVERAGEA(D29:D38)</f>
         <v>-103.34824336818011</v>
@@ -10182,11 +10518,11 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
+      <c r="A40" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="8">
         <f t="shared" ref="D40:O40" si="32">_xlfn.STDEV.P(D29:D38)</f>
         <v>191.72920723927598</v>
@@ -10238,7 +10574,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="34" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
@@ -10292,13 +10628,13 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="28">
+      <c r="A42" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="37">
         <v>1</v>
       </c>
-      <c r="C42" s="28"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="4">
         <v>267.43746373076402</v>
       </c>
@@ -10337,11 +10673,11 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="31"/>
-      <c r="B43" s="28">
+      <c r="A43" s="40"/>
+      <c r="B43" s="37">
         <v>2</v>
       </c>
-      <c r="C43" s="28"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="4">
         <v>506.313242528915</v>
       </c>
@@ -10380,11 +10716,11 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="31"/>
-      <c r="B44" s="28">
+      <c r="A44" s="40"/>
+      <c r="B44" s="37">
         <v>3</v>
       </c>
-      <c r="C44" s="28"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="4">
         <v>638.05196948525202</v>
       </c>
@@ -10423,11 +10759,11 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="31"/>
-      <c r="B45" s="28">
+      <c r="A45" s="40"/>
+      <c r="B45" s="37">
         <v>4</v>
       </c>
-      <c r="C45" s="28"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="4">
         <v>589.16086615087795</v>
       </c>
@@ -10466,11 +10802,11 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="31"/>
-      <c r="B46" s="28">
+      <c r="A46" s="40"/>
+      <c r="B46" s="37">
         <v>5</v>
       </c>
-      <c r="C46" s="28"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="4">
         <v>356.648720945013</v>
       </c>
@@ -10509,11 +10845,11 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="31"/>
-      <c r="B47" s="28">
+      <c r="A47" s="40"/>
+      <c r="B47" s="37">
         <v>6</v>
       </c>
-      <c r="C47" s="28"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="4">
         <v>583.34198706302197</v>
       </c>
@@ -10552,11 +10888,11 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="31"/>
-      <c r="B48" s="28">
+      <c r="A48" s="40"/>
+      <c r="B48" s="37">
         <v>7</v>
       </c>
-      <c r="C48" s="28"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="4">
         <v>412.26369519255701</v>
       </c>
@@ -10595,11 +10931,11 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" s="31"/>
-      <c r="B49" s="28">
+      <c r="A49" s="40"/>
+      <c r="B49" s="37">
         <v>8</v>
       </c>
-      <c r="C49" s="28"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="4">
         <v>640.12220946943603</v>
       </c>
@@ -10638,11 +10974,11 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="31"/>
-      <c r="B50" s="28">
+      <c r="A50" s="40"/>
+      <c r="B50" s="37">
         <v>9</v>
       </c>
-      <c r="C50" s="28"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="4">
         <v>292.905928671406</v>
       </c>
@@ -10681,11 +11017,11 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="31"/>
-      <c r="B51" s="28">
+      <c r="A51" s="40"/>
+      <c r="B51" s="37">
         <v>10</v>
       </c>
-      <c r="C51" s="28"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="4">
         <v>217.59798684082</v>
       </c>
@@ -10724,11 +11060,11 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
+      <c r="A52" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="8">
         <f>AVERAGEA(D42:D51)</f>
         <v>450.38440700780637</v>
@@ -10779,11 +11115,11 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
+      <c r="A53" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="8">
         <f t="shared" ref="D53:O53" si="53">_xlfn.STDEV.P(D42:D51)</f>
         <v>152.96481495986396</v>
@@ -10835,7 +11171,7 @@
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="34" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B54" s="35"/>
       <c r="C54" s="36"/>
@@ -10889,13 +11225,13 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="28">
+      <c r="A55" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="37">
         <v>1</v>
       </c>
-      <c r="C55" s="28"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="4">
         <v>7953.6532773489698</v>
       </c>
@@ -10934,11 +11270,11 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="31"/>
-      <c r="B56" s="28">
+      <c r="A56" s="40"/>
+      <c r="B56" s="37">
         <v>2</v>
       </c>
-      <c r="C56" s="28"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="4">
         <v>6164.5484291483999</v>
       </c>
@@ -10977,11 +11313,11 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="31"/>
-      <c r="B57" s="28">
+      <c r="A57" s="40"/>
+      <c r="B57" s="37">
         <v>3</v>
       </c>
-      <c r="C57" s="28"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="4">
         <v>10107.838807843</v>
       </c>
@@ -11020,11 +11356,11 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="31"/>
-      <c r="B58" s="28">
+      <c r="A58" s="40"/>
+      <c r="B58" s="37">
         <v>4</v>
       </c>
-      <c r="C58" s="28"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="4">
         <v>8397.9316482681807</v>
       </c>
@@ -11063,11 +11399,11 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="31"/>
-      <c r="B59" s="28">
+      <c r="A59" s="40"/>
+      <c r="B59" s="37">
         <v>5</v>
       </c>
-      <c r="C59" s="28"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="4">
         <v>8797.8507111516992</v>
       </c>
@@ -11106,11 +11442,11 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="31"/>
-      <c r="B60" s="28">
+      <c r="A60" s="40"/>
+      <c r="B60" s="37">
         <v>6</v>
       </c>
-      <c r="C60" s="28"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="4">
         <v>7004.2009996774204</v>
       </c>
@@ -11149,11 +11485,11 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61" s="31"/>
-      <c r="B61" s="28">
+      <c r="A61" s="40"/>
+      <c r="B61" s="37">
         <v>7</v>
       </c>
-      <c r="C61" s="28"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="4">
         <v>6851.3463994677604</v>
       </c>
@@ -11192,11 +11528,11 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62" s="31"/>
-      <c r="B62" s="28">
+      <c r="A62" s="40"/>
+      <c r="B62" s="37">
         <v>8</v>
       </c>
-      <c r="C62" s="28"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="4">
         <v>7621.3852935499599</v>
       </c>
@@ -11235,11 +11571,11 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A63" s="31"/>
-      <c r="B63" s="28">
+      <c r="A63" s="40"/>
+      <c r="B63" s="37">
         <v>9</v>
       </c>
-      <c r="C63" s="28"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="4">
         <v>5886.5469808080597</v>
       </c>
@@ -11278,11 +11614,11 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="31"/>
-      <c r="B64" s="28">
+      <c r="A64" s="40"/>
+      <c r="B64" s="37">
         <v>10</v>
       </c>
-      <c r="C64" s="28"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="4">
         <v>6786.0219372943602</v>
       </c>
@@ -11321,11 +11657,11 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
+      <c r="A65" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="8">
         <f>AVERAGEA(D55:D64)</f>
         <v>7557.1324484557799</v>
@@ -11376,11 +11712,11 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
+      <c r="A66" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="8">
         <f t="shared" ref="D66:O66" si="74">_xlfn.STDEV.P(D55:D64)</f>
         <v>1226.475023774376</v>
@@ -11432,7 +11768,7 @@
     </row>
     <row r="67" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="34" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B67" s="35"/>
       <c r="C67" s="36"/>
@@ -11486,13 +11822,13 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A68" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="28">
+      <c r="A68" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="37">
         <v>1</v>
       </c>
-      <c r="C68" s="28"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="4">
         <v>-251.12716398301299</v>
       </c>
@@ -11531,11 +11867,11 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A69" s="31"/>
-      <c r="B69" s="28">
+      <c r="A69" s="40"/>
+      <c r="B69" s="37">
         <v>2</v>
       </c>
-      <c r="C69" s="28"/>
+      <c r="C69" s="37"/>
       <c r="D69" s="4">
         <v>-124.47042566633399</v>
       </c>
@@ -11574,11 +11910,11 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A70" s="31"/>
-      <c r="B70" s="28">
+      <c r="A70" s="40"/>
+      <c r="B70" s="37">
         <v>3</v>
       </c>
-      <c r="C70" s="28"/>
+      <c r="C70" s="37"/>
       <c r="D70" s="4">
         <v>192.661136879552</v>
       </c>
@@ -11617,11 +11953,11 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A71" s="31"/>
-      <c r="B71" s="28">
+      <c r="A71" s="40"/>
+      <c r="B71" s="37">
         <v>4</v>
       </c>
-      <c r="C71" s="28"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="4">
         <v>205.89817463042601</v>
       </c>
@@ -11660,11 +11996,11 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72" s="31"/>
-      <c r="B72" s="28">
+      <c r="A72" s="40"/>
+      <c r="B72" s="37">
         <v>5</v>
       </c>
-      <c r="C72" s="28"/>
+      <c r="C72" s="37"/>
       <c r="D72" s="4">
         <v>-213.93853275929499</v>
       </c>
@@ -11703,11 +12039,11 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" s="31"/>
-      <c r="B73" s="28">
+      <c r="A73" s="40"/>
+      <c r="B73" s="37">
         <v>6</v>
       </c>
-      <c r="C73" s="28"/>
+      <c r="C73" s="37"/>
       <c r="D73" s="4">
         <v>265.98117686227903</v>
       </c>
@@ -11746,11 +12082,11 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="31"/>
-      <c r="B74" s="28">
+      <c r="A74" s="40"/>
+      <c r="B74" s="37">
         <v>7</v>
       </c>
-      <c r="C74" s="28"/>
+      <c r="C74" s="37"/>
       <c r="D74" s="4">
         <v>431.33221265550901</v>
       </c>
@@ -11789,11 +12125,11 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A75" s="31"/>
-      <c r="B75" s="28">
+      <c r="A75" s="40"/>
+      <c r="B75" s="37">
         <v>8</v>
       </c>
-      <c r="C75" s="28"/>
+      <c r="C75" s="37"/>
       <c r="D75" s="4">
         <v>180.29171895022299</v>
       </c>
@@ -11832,11 +12168,11 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="31"/>
-      <c r="B76" s="28">
+      <c r="A76" s="40"/>
+      <c r="B76" s="37">
         <v>9</v>
       </c>
-      <c r="C76" s="28"/>
+      <c r="C76" s="37"/>
       <c r="D76" s="4">
         <v>112.250205320902</v>
       </c>
@@ -11875,11 +12211,11 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="31"/>
-      <c r="B77" s="28">
+      <c r="A77" s="40"/>
+      <c r="B77" s="37">
         <v>10</v>
       </c>
-      <c r="C77" s="28"/>
+      <c r="C77" s="37"/>
       <c r="D77" s="4">
         <v>430.52548285200402</v>
       </c>
@@ -11918,11 +12254,11 @@
       </c>
     </row>
     <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
+      <c r="A78" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="8">
         <f>AVERAGEA(D68:D77)</f>
         <v>122.94039857422531</v>
@@ -11973,11 +12309,11 @@
       </c>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
+      <c r="A79" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
       <c r="D79" s="8">
         <f t="shared" ref="D79:O79" si="95">_xlfn.STDEV.P(D68:D77)</f>
         <v>232.36765246905188</v>
@@ -12029,7 +12365,7 @@
     </row>
     <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="34" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B80" s="35"/>
       <c r="C80" s="36"/>
@@ -12083,13 +12419,13 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A81" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="28">
+      <c r="A81" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="37">
         <v>1</v>
       </c>
-      <c r="C81" s="28"/>
+      <c r="C81" s="37"/>
       <c r="D81" s="4">
         <v>298.29438096362202</v>
       </c>
@@ -12128,11 +12464,11 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A82" s="31"/>
-      <c r="B82" s="28">
+      <c r="A82" s="40"/>
+      <c r="B82" s="37">
         <v>2</v>
       </c>
-      <c r="C82" s="28"/>
+      <c r="C82" s="37"/>
       <c r="D82" s="4">
         <v>586.32415886029298</v>
       </c>
@@ -12171,11 +12507,11 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A83" s="31"/>
-      <c r="B83" s="28">
+      <c r="A83" s="40"/>
+      <c r="B83" s="37">
         <v>3</v>
       </c>
-      <c r="C83" s="28"/>
+      <c r="C83" s="37"/>
       <c r="D83" s="4">
         <v>481.67163493449402</v>
       </c>
@@ -12214,11 +12550,11 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A84" s="31"/>
-      <c r="B84" s="28">
+      <c r="A84" s="40"/>
+      <c r="B84" s="37">
         <v>4</v>
       </c>
-      <c r="C84" s="28"/>
+      <c r="C84" s="37"/>
       <c r="D84" s="4">
         <v>517.61174575860002</v>
       </c>
@@ -12257,11 +12593,11 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A85" s="31"/>
-      <c r="B85" s="28">
+      <c r="A85" s="40"/>
+      <c r="B85" s="37">
         <v>5</v>
       </c>
-      <c r="C85" s="28"/>
+      <c r="C85" s="37"/>
       <c r="D85" s="4">
         <v>376.096566972657</v>
       </c>
@@ -12300,11 +12636,11 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A86" s="31"/>
-      <c r="B86" s="28">
+      <c r="A86" s="40"/>
+      <c r="B86" s="37">
         <v>6</v>
       </c>
-      <c r="C86" s="28"/>
+      <c r="C86" s="37"/>
       <c r="D86" s="4">
         <v>251.422898000348</v>
       </c>
@@ -12343,11 +12679,11 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A87" s="31"/>
-      <c r="B87" s="28">
+      <c r="A87" s="40"/>
+      <c r="B87" s="37">
         <v>7</v>
       </c>
-      <c r="C87" s="28"/>
+      <c r="C87" s="37"/>
       <c r="D87" s="4">
         <v>307.95048570896301</v>
       </c>
@@ -12386,11 +12722,11 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A88" s="31"/>
-      <c r="B88" s="28">
+      <c r="A88" s="40"/>
+      <c r="B88" s="37">
         <v>8</v>
       </c>
-      <c r="C88" s="28"/>
+      <c r="C88" s="37"/>
       <c r="D88" s="4">
         <v>482.061555328525</v>
       </c>
@@ -12429,11 +12765,11 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A89" s="31"/>
-      <c r="B89" s="28">
+      <c r="A89" s="40"/>
+      <c r="B89" s="37">
         <v>9</v>
       </c>
-      <c r="C89" s="28"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="4">
         <v>41.015453925223497</v>
       </c>
@@ -12472,11 +12808,11 @@
       </c>
     </row>
     <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="31"/>
-      <c r="B90" s="28">
+      <c r="A90" s="40"/>
+      <c r="B90" s="37">
         <v>10</v>
       </c>
-      <c r="C90" s="28"/>
+      <c r="C90" s="37"/>
       <c r="D90" s="4">
         <v>336.53239582291502</v>
       </c>
@@ -12515,11 +12851,11 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
+      <c r="A91" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
       <c r="D91" s="8">
         <f>AVERAGEA(D81:D90)</f>
         <v>367.89812762756407</v>
@@ -12570,11 +12906,11 @@
       </c>
     </row>
     <row r="92" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
+      <c r="A92" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
       <c r="D92" s="8">
         <f t="shared" ref="D92:O92" si="116">_xlfn.STDEV.P(D81:D90)</f>
         <v>150.33628441178746</v>
@@ -12626,7 +12962,7 @@
     </row>
     <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="34" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B93" s="35"/>
       <c r="C93" s="36"/>
@@ -12680,13 +13016,13 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A94" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="28">
+      <c r="A94" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="37">
         <v>1</v>
       </c>
-      <c r="C94" s="28"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="4">
         <v>152.73608423221199</v>
       </c>
@@ -12725,11 +13061,11 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A95" s="31"/>
-      <c r="B95" s="28">
+      <c r="A95" s="40"/>
+      <c r="B95" s="37">
         <v>2</v>
       </c>
-      <c r="C95" s="28"/>
+      <c r="C95" s="37"/>
       <c r="D95" s="4">
         <v>421.59853167213799</v>
       </c>
@@ -12768,11 +13104,11 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A96" s="31"/>
-      <c r="B96" s="28">
+      <c r="A96" s="40"/>
+      <c r="B96" s="37">
         <v>3</v>
       </c>
-      <c r="C96" s="28"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="4">
         <v>646.65348352339004</v>
       </c>
@@ -12811,11 +13147,11 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A97" s="31"/>
-      <c r="B97" s="28">
+      <c r="A97" s="40"/>
+      <c r="B97" s="37">
         <v>4</v>
       </c>
-      <c r="C97" s="28"/>
+      <c r="C97" s="37"/>
       <c r="D97" s="4">
         <v>509.05893966029299</v>
       </c>
@@ -12854,11 +13190,11 @@
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A98" s="31"/>
-      <c r="B98" s="28">
+      <c r="A98" s="40"/>
+      <c r="B98" s="37">
         <v>5</v>
       </c>
-      <c r="C98" s="28"/>
+      <c r="C98" s="37"/>
       <c r="D98" s="4">
         <v>287.22397190931503</v>
       </c>
@@ -12897,11 +13233,11 @@
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A99" s="31"/>
-      <c r="B99" s="28">
+      <c r="A99" s="40"/>
+      <c r="B99" s="37">
         <v>6</v>
       </c>
-      <c r="C99" s="28"/>
+      <c r="C99" s="37"/>
       <c r="D99" s="4">
         <v>533.10311988598505</v>
       </c>
@@ -12940,11 +13276,11 @@
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A100" s="31"/>
-      <c r="B100" s="28">
+      <c r="A100" s="40"/>
+      <c r="B100" s="37">
         <v>7</v>
       </c>
-      <c r="C100" s="28"/>
+      <c r="C100" s="37"/>
       <c r="D100" s="4">
         <v>826.73225353197699</v>
       </c>
@@ -12983,11 +13319,11 @@
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A101" s="31"/>
-      <c r="B101" s="28">
+      <c r="A101" s="40"/>
+      <c r="B101" s="37">
         <v>8</v>
       </c>
-      <c r="C101" s="28"/>
+      <c r="C101" s="37"/>
       <c r="D101" s="4">
         <v>813.85237226700099</v>
       </c>
@@ -13026,11 +13362,11 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A102" s="31"/>
-      <c r="B102" s="28">
+      <c r="A102" s="40"/>
+      <c r="B102" s="37">
         <v>9</v>
       </c>
-      <c r="C102" s="28"/>
+      <c r="C102" s="37"/>
       <c r="D102" s="4">
         <v>420.50939902501301</v>
       </c>
@@ -13069,11 +13405,11 @@
       </c>
     </row>
     <row r="103" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="31"/>
-      <c r="B103" s="28">
+      <c r="A103" s="40"/>
+      <c r="B103" s="37">
         <v>10</v>
       </c>
-      <c r="C103" s="28"/>
+      <c r="C103" s="37"/>
       <c r="D103" s="4">
         <v>750.08177409479799</v>
       </c>
@@ -13112,11 +13448,11 @@
       </c>
     </row>
     <row r="104" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
+      <c r="A104" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
       <c r="D104" s="8">
         <f>AVERAGEA(D94:D103)</f>
         <v>536.15499298021223</v>
@@ -13166,12 +13502,12 @@
         <v>-429.8246460342275</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A105" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
+    <row r="105" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
       <c r="D105" s="8">
         <f t="shared" ref="D105:O105" si="136">_xlfn.STDEV.P(D94:D103)</f>
         <v>213.48135094273982</v>
@@ -13222,11 +13558,11 @@
       </c>
     </row>
     <row r="106" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" s="32"/>
-      <c r="C106" s="33"/>
+      <c r="A106" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="35"/>
+      <c r="C106" s="36"/>
       <c r="D106" s="12">
         <f>D105/D104</f>
         <v>0.39817096499671828</v>
@@ -13277,13 +13613,13 @@
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A107" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" s="28">
+      <c r="A107" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="37">
         <v>1</v>
       </c>
-      <c r="C107" s="28"/>
+      <c r="C107" s="37"/>
       <c r="D107" s="4">
         <v>2851.6618502501101</v>
       </c>
@@ -13322,11 +13658,11 @@
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A108" s="31"/>
-      <c r="B108" s="28">
+      <c r="A108" s="40"/>
+      <c r="B108" s="37">
         <v>2</v>
       </c>
-      <c r="C108" s="28"/>
+      <c r="C108" s="37"/>
       <c r="D108" s="4">
         <v>2333.0819307032298</v>
       </c>
@@ -13365,11 +13701,11 @@
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A109" s="31"/>
-      <c r="B109" s="28">
+      <c r="A109" s="40"/>
+      <c r="B109" s="37">
         <v>3</v>
       </c>
-      <c r="C109" s="28"/>
+      <c r="C109" s="37"/>
       <c r="D109" s="4">
         <v>3152.4055596784801</v>
       </c>
@@ -13408,11 +13744,11 @@
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A110" s="31"/>
-      <c r="B110" s="28">
+      <c r="A110" s="40"/>
+      <c r="B110" s="37">
         <v>4</v>
       </c>
-      <c r="C110" s="28"/>
+      <c r="C110" s="37"/>
       <c r="D110" s="4">
         <v>2734.5811688982499</v>
       </c>
@@ -13451,11 +13787,11 @@
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A111" s="31"/>
-      <c r="B111" s="28">
+      <c r="A111" s="40"/>
+      <c r="B111" s="37">
         <v>5</v>
       </c>
-      <c r="C111" s="28"/>
+      <c r="C111" s="37"/>
       <c r="D111" s="4">
         <v>2347.0839608053998</v>
       </c>
@@ -13494,11 +13830,11 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A112" s="31"/>
-      <c r="B112" s="28">
+      <c r="A112" s="40"/>
+      <c r="B112" s="37">
         <v>6</v>
       </c>
-      <c r="C112" s="28"/>
+      <c r="C112" s="37"/>
       <c r="D112" s="4">
         <v>2321.5860404929899</v>
       </c>
@@ -13537,11 +13873,11 @@
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A113" s="31"/>
-      <c r="B113" s="28">
+      <c r="A113" s="40"/>
+      <c r="B113" s="37">
         <v>7</v>
       </c>
-      <c r="C113" s="28"/>
+      <c r="C113" s="37"/>
       <c r="D113" s="4">
         <v>2437.1772332917899</v>
       </c>
@@ -13580,11 +13916,11 @@
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A114" s="31"/>
-      <c r="B114" s="28">
+      <c r="A114" s="40"/>
+      <c r="B114" s="37">
         <v>8</v>
       </c>
-      <c r="C114" s="28"/>
+      <c r="C114" s="37"/>
       <c r="D114" s="4">
         <v>2826.0432534391598</v>
       </c>
@@ -13623,11 +13959,11 @@
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A115" s="31"/>
-      <c r="B115" s="28">
+      <c r="A115" s="40"/>
+      <c r="B115" s="37">
         <v>9</v>
       </c>
-      <c r="C115" s="28"/>
+      <c r="C115" s="37"/>
       <c r="D115" s="4">
         <v>2015.5546096028299</v>
       </c>
@@ -13666,11 +14002,11 @@
       </c>
     </row>
     <row r="116" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="31"/>
-      <c r="B116" s="28">
+      <c r="A116" s="40"/>
+      <c r="B116" s="37">
         <v>10</v>
       </c>
-      <c r="C116" s="28"/>
+      <c r="C116" s="37"/>
       <c r="D116" s="4">
         <v>1681.42122863331</v>
       </c>
@@ -13709,11 +14045,11 @@
       </c>
     </row>
     <row r="117" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
+      <c r="A117" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="39"/>
+      <c r="C117" s="39"/>
       <c r="D117" s="8">
         <f>AVERAGEA(D107:D116)</f>
         <v>2470.059683579555</v>
@@ -13764,11 +14100,11 @@
       </c>
     </row>
     <row r="118" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
+      <c r="A118" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
       <c r="D118" s="8">
         <f t="shared" ref="D118:O118" si="157">_xlfn.STDEV.P(D107:D116)</f>
         <v>411.51538400597559</v>
@@ -13820,7 +14156,7 @@
     </row>
     <row r="119" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="34" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B119" s="35"/>
       <c r="C119" s="36"/>
@@ -20026,24 +20362,119 @@
     </row>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="V15:V17"/>
-    <mergeCell ref="W15:W17"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A107:A116"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A94:A103"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="Q3:Q5"/>
@@ -20068,134 +20499,39 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A81:A90"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A107:A116"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A94:A103"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="V15:V17"/>
+    <mergeCell ref="W15:W17"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="W18:W20"/>
   </mergeCells>
   <conditionalFormatting sqref="D15:O15">
-    <cfRule type="cellIs" dxfId="53" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="58" operator="lessThan">
-      <formula>0.5</formula>
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="51" priority="57" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="56" operator="greaterThan">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="lessThan">
+      <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="48" priority="60" operator="greaterThan">
@@ -20203,51 +20539,51 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:O28">
-    <cfRule type="cellIs" dxfId="47" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="52" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="51" operator="greaterThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="49" operator="lessThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:O41">
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="45" operator="greaterThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="48" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="43" operator="lessThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:O54">
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="41" operator="lessThan">
-      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="33" priority="39" operator="greaterThan">
       <formula>0.5</formula>
@@ -20255,11 +20591,11 @@
     <cfRule type="cellIs" dxfId="32" priority="40" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="37" operator="lessThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:O67">
@@ -20283,11 +20619,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80:O80">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
-      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="21" priority="21" operator="greaterThan">
       <formula>0.5</formula>
@@ -20295,70 +20631,70 @@
     <cfRule type="cellIs" dxfId="20" priority="22" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:O93">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106:O106">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:O119">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>0.5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
-      <formula>0.5</formula>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
